--- a/Model/BayesLSTM/Multivariate/result/Service/GBR.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Service/GBR.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>70.56321716308594</v>
+        <v>69.53217315673828</v>
       </c>
       <c r="C2" t="n">
-        <v>69.94094085693359</v>
+        <v>68.26698303222656</v>
       </c>
       <c r="D2" t="n">
-        <v>71.18549346923828</v>
+        <v>70.79736328125</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>70.27450561523438</v>
+        <v>69.75296783447266</v>
       </c>
       <c r="C3" t="n">
-        <v>69.36538696289062</v>
+        <v>69.02228546142578</v>
       </c>
       <c r="D3" t="n">
-        <v>71.18362426757812</v>
+        <v>70.48365020751953</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>70.09278106689453</v>
+        <v>69.60499572753906</v>
       </c>
       <c r="C4" t="n">
-        <v>69.11532592773438</v>
+        <v>68.63615417480469</v>
       </c>
       <c r="D4" t="n">
-        <v>71.07023620605469</v>
+        <v>70.57383728027344</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>70.06526947021484</v>
+        <v>69.65323638916016</v>
       </c>
       <c r="C5" t="n">
-        <v>69.33298492431641</v>
+        <v>68.50000762939453</v>
       </c>
       <c r="D5" t="n">
-        <v>70.79755401611328</v>
+        <v>70.80646514892578</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>70.01052856445312</v>
+        <v>69.83090972900391</v>
       </c>
       <c r="C6" t="n">
-        <v>69.32898712158203</v>
+        <v>68.48529052734375</v>
       </c>
       <c r="D6" t="n">
-        <v>70.69207000732422</v>
+        <v>71.17652893066406</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>69.87480163574219</v>
+        <v>69.93024444580078</v>
       </c>
       <c r="C7" t="n">
-        <v>69.36598968505859</v>
+        <v>68.76010131835938</v>
       </c>
       <c r="D7" t="n">
-        <v>70.38361358642578</v>
+        <v>71.10038757324219</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>70.02964019775391</v>
+        <v>70.17988586425781</v>
       </c>
       <c r="C8" t="n">
-        <v>68.96026611328125</v>
+        <v>68.64873504638672</v>
       </c>
       <c r="D8" t="n">
-        <v>71.09901428222656</v>
+        <v>71.71103668212891</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>69.81414031982422</v>
+        <v>70.22090911865234</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37343597412109</v>
+        <v>69.28190612792969</v>
       </c>
       <c r="D9" t="n">
-        <v>70.25484466552734</v>
+        <v>71.159912109375</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>69.89263153076172</v>
+        <v>70.06177520751953</v>
       </c>
       <c r="C10" t="n">
-        <v>69.13188171386719</v>
+        <v>68.69469451904297</v>
       </c>
       <c r="D10" t="n">
-        <v>70.65338134765625</v>
+        <v>71.42885589599609</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>70.01421356201172</v>
+        <v>69.77455139160156</v>
       </c>
       <c r="C11" t="n">
-        <v>69.35121154785156</v>
+        <v>68.88787841796875</v>
       </c>
       <c r="D11" t="n">
-        <v>70.67721557617188</v>
+        <v>70.66122436523438</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>70.23944091796875</v>
+        <v>70.24754333496094</v>
       </c>
       <c r="C12" t="n">
-        <v>69.28862762451172</v>
+        <v>68.95964813232422</v>
       </c>
       <c r="D12" t="n">
-        <v>71.19025421142578</v>
+        <v>71.53543853759766</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>70.26266479492188</v>
+        <v>69.51530456542969</v>
       </c>
       <c r="C13" t="n">
-        <v>69.5526123046875</v>
+        <v>68.33765411376953</v>
       </c>
       <c r="D13" t="n">
-        <v>70.97271728515625</v>
+        <v>70.69295501708984</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>70.05424499511719</v>
+        <v>69.56903076171875</v>
       </c>
       <c r="C14" t="n">
-        <v>69.34356689453125</v>
+        <v>68.10586547851562</v>
       </c>
       <c r="D14" t="n">
-        <v>70.76492309570312</v>
+        <v>71.03219604492188</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>70.08525085449219</v>
+        <v>69.75457000732422</v>
       </c>
       <c r="C15" t="n">
-        <v>69.12133026123047</v>
+        <v>69.02720642089844</v>
       </c>
       <c r="D15" t="n">
-        <v>71.04917144775391</v>
+        <v>70.48193359375</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>70.01772308349609</v>
+        <v>69.83256530761719</v>
       </c>
       <c r="C16" t="n">
-        <v>69.18379211425781</v>
+        <v>68.45168304443359</v>
       </c>
       <c r="D16" t="n">
-        <v>70.85165405273438</v>
+        <v>71.21344757080078</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>70.07948303222656</v>
+        <v>69.55548858642578</v>
       </c>
       <c r="C17" t="n">
-        <v>69.18259429931641</v>
+        <v>68.17336273193359</v>
       </c>
       <c r="D17" t="n">
-        <v>70.97637176513672</v>
+        <v>70.93761444091797</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>69.92671966552734</v>
+        <v>69.84773254394531</v>
       </c>
       <c r="C18" t="n">
-        <v>68.76084136962891</v>
+        <v>68.69013977050781</v>
       </c>
       <c r="D18" t="n">
-        <v>71.09259796142578</v>
+        <v>71.00532531738281</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>70.16812896728516</v>
+        <v>69.91615295410156</v>
       </c>
       <c r="C19" t="n">
-        <v>69.20949554443359</v>
+        <v>68.50344085693359</v>
       </c>
       <c r="D19" t="n">
-        <v>71.12676239013672</v>
+        <v>71.32886505126953</v>
       </c>
     </row>
     <row r="20">
@@ -715,83 +715,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>69.92288208007812</v>
+        <v>69.90324401855469</v>
       </c>
       <c r="C20" t="n">
-        <v>69.22787475585938</v>
+        <v>68.14653778076172</v>
       </c>
       <c r="D20" t="n">
-        <v>70.61788940429688</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B21" t="n">
-        <v>70.18818664550781</v>
-      </c>
-      <c r="C21" t="n">
-        <v>69.355712890625</v>
-      </c>
-      <c r="D21" t="n">
-        <v>71.02066040039062</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B22" t="n">
-        <v>69.93080902099609</v>
-      </c>
-      <c r="C22" t="n">
-        <v>69.06050109863281</v>
-      </c>
-      <c r="D22" t="n">
-        <v>70.80111694335938</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B23" t="n">
-        <v>69.93443298339844</v>
-      </c>
-      <c r="C23" t="n">
-        <v>69.12570190429688</v>
-      </c>
-      <c r="D23" t="n">
-        <v>70.7431640625</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B24" t="n">
-        <v>70.170654296875</v>
-      </c>
-      <c r="C24" t="n">
-        <v>69.43776702880859</v>
-      </c>
-      <c r="D24" t="n">
-        <v>70.90354156494141</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B25" t="n">
-        <v>69.94758605957031</v>
-      </c>
-      <c r="C25" t="n">
-        <v>69.21322631835938</v>
-      </c>
-      <c r="D25" t="n">
-        <v>70.68194580078125</v>
+        <v>71.65995025634766</v>
       </c>
     </row>
   </sheetData>
@@ -837,72 +767,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>68.82761383056641</v>
+        <v>69.67472839355469</v>
       </c>
       <c r="C2" t="n">
-        <v>67.77719433565437</v>
+        <v>68.59238433837891</v>
       </c>
       <c r="D2" t="n">
-        <v>69.87803332547844</v>
+        <v>70.75707244873047</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>70.10199966430665</v>
+        <v>69.64727783203125</v>
       </c>
       <c r="C3" t="n">
-        <v>69.25545394702164</v>
+        <v>68.32403564453125</v>
       </c>
       <c r="D3" t="n">
-        <v>70.94854538159166</v>
+        <v>70.97052001953125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>70.43537216186523</v>
+        <v>69.55931091308594</v>
       </c>
       <c r="C4" t="n">
-        <v>68.81458759548329</v>
+        <v>68.28794860839844</v>
       </c>
       <c r="D4" t="n">
-        <v>72.05615672824717</v>
+        <v>70.83067321777344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>70.47568740844727</v>
+        <v>69.84873962402344</v>
       </c>
       <c r="C5" t="n">
-        <v>69.59130389296828</v>
+        <v>68.50714874267578</v>
       </c>
       <c r="D5" t="n">
-        <v>71.36007092392626</v>
+        <v>71.19033050537109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>70.59321441650391</v>
+        <v>69.59346008300781</v>
       </c>
       <c r="C6" t="n">
-        <v>69.87421992747862</v>
+        <v>68.61796569824219</v>
       </c>
       <c r="D6" t="n">
-        <v>71.3122089055292</v>
+        <v>70.56895446777344</v>
       </c>
     </row>
   </sheetData>
@@ -951,13 +881,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>69.33784484863281</v>
+        <v>70.17662048339844</v>
       </c>
       <c r="C2" t="n">
-        <v>67.94696044921875</v>
+        <v>69.74143218994141</v>
       </c>
       <c r="D2" t="n">
-        <v>70.72872924804688</v>
+        <v>70.61180877685547</v>
       </c>
     </row>
     <row r="3">
@@ -965,13 +895,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>69.35384368896484</v>
+        <v>70.20054626464844</v>
       </c>
       <c r="C3" t="n">
-        <v>67.89063262939453</v>
+        <v>69.85964202880859</v>
       </c>
       <c r="D3" t="n">
-        <v>70.81705474853516</v>
+        <v>70.54145050048828</v>
       </c>
     </row>
     <row r="4">
@@ -979,13 +909,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>69.39222717285156</v>
+        <v>70.26393127441406</v>
       </c>
       <c r="C4" t="n">
-        <v>67.63855743408203</v>
+        <v>69.58050537109375</v>
       </c>
       <c r="D4" t="n">
-        <v>71.14589691162109</v>
+        <v>70.94735717773438</v>
       </c>
     </row>
     <row r="5">
@@ -993,13 +923,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>69.60671234130859</v>
+        <v>70.32417297363281</v>
       </c>
       <c r="C5" t="n">
-        <v>67.71248626708984</v>
+        <v>69.372802734375</v>
       </c>
       <c r="D5" t="n">
-        <v>71.50093841552734</v>
+        <v>71.27554321289062</v>
       </c>
     </row>
     <row r="6">
@@ -1007,13 +937,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>69.13340759277344</v>
+        <v>70.31192016601562</v>
       </c>
       <c r="C6" t="n">
-        <v>67.99275970458984</v>
+        <v>69.48902130126953</v>
       </c>
       <c r="D6" t="n">
-        <v>70.27405548095703</v>
+        <v>71.13481903076172</v>
       </c>
     </row>
     <row r="7">
@@ -1021,13 +951,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>69.7901611328125</v>
+        <v>70.20319366455078</v>
       </c>
       <c r="C7" t="n">
-        <v>68.81192779541016</v>
+        <v>69.28411102294922</v>
       </c>
       <c r="D7" t="n">
-        <v>70.76839447021484</v>
+        <v>71.12227630615234</v>
       </c>
     </row>
     <row r="8">
@@ -1035,13 +965,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>69.60262298583984</v>
+        <v>70.17616271972656</v>
       </c>
       <c r="C8" t="n">
-        <v>68.46253204345703</v>
+        <v>69.24872589111328</v>
       </c>
       <c r="D8" t="n">
-        <v>70.74271392822266</v>
+        <v>71.10359954833984</v>
       </c>
     </row>
     <row r="9">
@@ -1049,13 +979,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>69.67476654052734</v>
+        <v>70.07145690917969</v>
       </c>
       <c r="C9" t="n">
-        <v>68.20085906982422</v>
+        <v>69.25659942626953</v>
       </c>
       <c r="D9" t="n">
-        <v>71.14867401123047</v>
+        <v>70.88631439208984</v>
       </c>
     </row>
     <row r="10">
@@ -1063,13 +993,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>69.09480285644531</v>
+        <v>69.94855499267578</v>
       </c>
       <c r="C10" t="n">
-        <v>67.41157531738281</v>
+        <v>69.32965850830078</v>
       </c>
       <c r="D10" t="n">
-        <v>70.77803039550781</v>
+        <v>70.56745147705078</v>
       </c>
     </row>
     <row r="11">
@@ -1077,13 +1007,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>69.73664093017578</v>
+        <v>70.08470153808594</v>
       </c>
       <c r="C11" t="n">
-        <v>68.33863067626953</v>
+        <v>69.23873138427734</v>
       </c>
       <c r="D11" t="n">
-        <v>71.13465118408203</v>
+        <v>70.93067169189453</v>
       </c>
     </row>
     <row r="12">
@@ -1091,13 +1021,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>69.24577331542969</v>
+        <v>70.07841491699219</v>
       </c>
       <c r="C12" t="n">
-        <v>68.1072998046875</v>
+        <v>69.40892791748047</v>
       </c>
       <c r="D12" t="n">
-        <v>70.38424682617188</v>
+        <v>70.74790191650391</v>
       </c>
     </row>
     <row r="13">
@@ -1105,13 +1035,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>69.71138763427734</v>
+        <v>69.95758819580078</v>
       </c>
       <c r="C13" t="n">
-        <v>68.12844085693359</v>
+        <v>69.4053955078125</v>
       </c>
       <c r="D13" t="n">
-        <v>71.29433441162109</v>
+        <v>70.50978088378906</v>
       </c>
     </row>
     <row r="14">
@@ -1119,13 +1049,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>69.38144683837891</v>
+        <v>70.15538787841797</v>
       </c>
       <c r="C14" t="n">
-        <v>68.09603118896484</v>
+        <v>69.53052520751953</v>
       </c>
       <c r="D14" t="n">
-        <v>70.66686248779297</v>
+        <v>70.78025054931641</v>
       </c>
     </row>
     <row r="15">
@@ -1133,13 +1063,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>69.46962738037109</v>
+        <v>69.95531463623047</v>
       </c>
       <c r="C15" t="n">
-        <v>67.61316680908203</v>
+        <v>69.26924896240234</v>
       </c>
       <c r="D15" t="n">
-        <v>71.32608795166016</v>
+        <v>70.64138031005859</v>
       </c>
     </row>
     <row r="16">
@@ -1147,13 +1077,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>70.01689147949219</v>
+        <v>70.10420227050781</v>
       </c>
       <c r="C16" t="n">
-        <v>68.25994873046875</v>
+        <v>69.45047760009766</v>
       </c>
       <c r="D16" t="n">
-        <v>71.77383422851562</v>
+        <v>70.75792694091797</v>
       </c>
     </row>
     <row r="17">
@@ -1161,13 +1091,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>69.53693389892578</v>
+        <v>69.97101593017578</v>
       </c>
       <c r="C17" t="n">
-        <v>68.26499938964844</v>
+        <v>69.29714202880859</v>
       </c>
       <c r="D17" t="n">
-        <v>70.80886840820312</v>
+        <v>70.64488983154297</v>
       </c>
     </row>
     <row r="18">
@@ -1175,13 +1105,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>69.53952789306641</v>
+        <v>70.07374572753906</v>
       </c>
       <c r="C18" t="n">
-        <v>67.72151947021484</v>
+        <v>69.39424133300781</v>
       </c>
       <c r="D18" t="n">
-        <v>71.35753631591797</v>
+        <v>70.75325012207031</v>
       </c>
     </row>
     <row r="19">
@@ -1189,13 +1119,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>69.19559478759766</v>
+        <v>70.19231414794922</v>
       </c>
       <c r="C19" t="n">
-        <v>67.90744781494141</v>
+        <v>69.61466217041016</v>
       </c>
       <c r="D19" t="n">
-        <v>70.48374176025391</v>
+        <v>70.76996612548828</v>
       </c>
     </row>
     <row r="20">
@@ -1203,13 +1133,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>69.51496887207031</v>
+        <v>70.32274627685547</v>
       </c>
       <c r="C20" t="n">
-        <v>67.63224029541016</v>
+        <v>69.67300415039062</v>
       </c>
       <c r="D20" t="n">
-        <v>71.39769744873047</v>
+        <v>70.97248840332031</v>
       </c>
     </row>
     <row r="21">
@@ -1217,13 +1147,13 @@
         <v>2017</v>
       </c>
       <c r="B21" t="n">
-        <v>69.80220031738281</v>
+        <v>70.36171722412109</v>
       </c>
       <c r="C21" t="n">
-        <v>68.48371124267578</v>
+        <v>69.65821075439453</v>
       </c>
       <c r="D21" t="n">
-        <v>71.12068939208984</v>
+        <v>71.06522369384766</v>
       </c>
     </row>
     <row r="22">
@@ -1231,13 +1161,13 @@
         <v>2018</v>
       </c>
       <c r="B22" t="n">
-        <v>69.22279357910156</v>
+        <v>70.29823303222656</v>
       </c>
       <c r="C22" t="n">
-        <v>67.67019653320312</v>
+        <v>69.77773284912109</v>
       </c>
       <c r="D22" t="n">
-        <v>70.775390625</v>
+        <v>70.81873321533203</v>
       </c>
     </row>
     <row r="23">
@@ -1245,13 +1175,13 @@
         <v>2019</v>
       </c>
       <c r="B23" t="n">
-        <v>69.48661804199219</v>
+        <v>70.22678375244141</v>
       </c>
       <c r="C23" t="n">
-        <v>67.87390899658203</v>
+        <v>69.47346496582031</v>
       </c>
       <c r="D23" t="n">
-        <v>71.09932708740234</v>
+        <v>70.9801025390625</v>
       </c>
     </row>
     <row r="24">
@@ -1259,13 +1189,13 @@
         <v>2020</v>
       </c>
       <c r="B24" t="n">
-        <v>69.71673583984375</v>
+        <v>70.11571502685547</v>
       </c>
       <c r="C24" t="n">
-        <v>67.9898681640625</v>
+        <v>69.57094573974609</v>
       </c>
       <c r="D24" t="n">
-        <v>71.443603515625</v>
+        <v>70.66048431396484</v>
       </c>
     </row>
     <row r="25">
@@ -1273,13 +1203,13 @@
         <v>2021</v>
       </c>
       <c r="B25" t="n">
-        <v>69.75797271728516</v>
+        <v>70.19398498535156</v>
       </c>
       <c r="C25" t="n">
-        <v>68.56953430175781</v>
+        <v>69.33322143554688</v>
       </c>
       <c r="D25" t="n">
-        <v>70.9464111328125</v>
+        <v>71.05474853515625</v>
       </c>
     </row>
   </sheetData>
@@ -1328,13 +1258,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>69.57642364501953</v>
+        <v>68.48757019042969</v>
       </c>
       <c r="C2" t="n">
-        <v>68.44504286218144</v>
+        <v>67.20306717002835</v>
       </c>
       <c r="D2" t="n">
-        <v>70.70780442785762</v>
+        <v>69.77207321083104</v>
       </c>
     </row>
     <row r="3">
@@ -1342,13 +1272,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>71.00350189208984</v>
+        <v>70.1577262878418</v>
       </c>
       <c r="C3" t="n">
-        <v>69.49336321549148</v>
+        <v>68.6284519953396</v>
       </c>
       <c r="D3" t="n">
-        <v>72.5136405686882</v>
+        <v>71.68700058034399</v>
       </c>
     </row>
     <row r="4">
@@ -1356,13 +1286,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>69.06704635620117</v>
+        <v>69.36893081665039</v>
       </c>
       <c r="C4" t="n">
-        <v>68.3349304309116</v>
+        <v>68.22385958507169</v>
       </c>
       <c r="D4" t="n">
-        <v>69.79916228149075</v>
+        <v>70.51400204822909</v>
       </c>
     </row>
     <row r="5">
@@ -1370,13 +1300,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>69.69700317382812</v>
+        <v>70.2006332397461</v>
       </c>
       <c r="C5" t="n">
-        <v>68.8272739385759</v>
+        <v>69.10322053336053</v>
       </c>
       <c r="D5" t="n">
-        <v>70.56673240908034</v>
+        <v>71.29804594613167</v>
       </c>
     </row>
     <row r="6">
@@ -1384,13 +1314,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>68.92052688598633</v>
+        <v>70.10142364501954</v>
       </c>
       <c r="C6" t="n">
-        <v>67.52346156923194</v>
+        <v>69.56191784205565</v>
       </c>
       <c r="D6" t="n">
-        <v>70.31759220274073</v>
+        <v>70.64092944798342</v>
       </c>
     </row>
   </sheetData>
